--- a/config_4.6/fish_3d_yutu_random_4.xlsx
+++ b/config_4.6/fish_3d_yutu_random_4.xlsx
@@ -1189,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1606,10 +1606,10 @@
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
       <c r="I18" s="26">
-        <v>1617062400</v>
+        <v>1617667200</v>
       </c>
       <c r="J18" s="26">
-        <v>1617638399</v>
+        <v>1618243199</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1634,10 +1634,10 @@
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
       <c r="I19" s="26">
-        <v>1617062400</v>
+        <v>1617667200</v>
       </c>
       <c r="J19" s="26">
-        <v>1617638399</v>
+        <v>1618243199</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1662,10 +1662,10 @@
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
       <c r="I20" s="26">
-        <v>1617062400</v>
+        <v>1617667200</v>
       </c>
       <c r="J20" s="26">
-        <v>1617638399</v>
+        <v>1618243199</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1690,10 +1690,10 @@
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
       <c r="I21" s="26">
-        <v>1617062400</v>
+        <v>1617667200</v>
       </c>
       <c r="J21" s="26">
-        <v>1617638399</v>
+        <v>1618243199</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1718,10 +1718,10 @@
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
       <c r="I22" s="26">
-        <v>1617062400</v>
+        <v>1617667200</v>
       </c>
       <c r="J22" s="26">
-        <v>1617638399</v>
+        <v>1618243199</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">

--- a/config_4.6/fish_3d_yutu_random_4.xlsx
+++ b/config_4.6/fish_3d_yutu_random_4.xlsx
@@ -1190,7 +1190,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1707,10 +1707,10 @@
         <v>93</v>
       </c>
       <c r="D22" s="24">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="E22" s="24">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="F22" s="24" t="s">
         <v>47</v>
